--- a/Data_input.xlsx
+++ b/Data_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Matej\Škola\FMFI\mEMM 2023-\Diplomová práca\Kódy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Matej\Škola\FMFI\mEMM 2023-\Diplomová práca\Kódy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34F63F5-4D45-4814-9E1D-9A9587381E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA65D10-F644-4E80-A4F0-D32A0B25DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,16 +144,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>t</t>
+    <t>time</t>
   </si>
   <si>
-    <t>p</t>
+    <t>price</t>
   </si>
   <si>
-    <t>b</t>
+    <t>buy_prev</t>
   </si>
   <si>
-    <t>d</t>
+    <t>sell_prev</t>
   </si>
 </sst>
 </file>
@@ -505,12 +505,12 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -578,7 +578,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -596,7 +596,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -614,7 +614,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -632,7 +632,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -650,7 +650,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -668,7 +668,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -686,7 +686,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -704,7 +704,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -722,7 +722,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -740,7 +740,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -758,7 +758,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -776,7 +776,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -794,7 +794,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -812,7 +812,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -848,7 +848,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -866,7 +866,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -884,7 +884,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -992,7 +992,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
     </row>
